--- a/literature/literatureReview.xlsx
+++ b/literature/literatureReview.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liverootnova-my.sharepoint.com/personal/cv759_mynsu_nova_edu/Documents/Emergency Communication data/Data/literature/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fb4f4bc628eb344d/Emergency-Warning-App/literature/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="170" documentId="8_{B2756B2C-3224-7B4D-A4A5-BBA1140B4A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE81B4BA-65DE-AE47-81F6-59A0DBB4142E}"/>
+  <xr:revisionPtr revIDLastSave="171" documentId="8_{B2756B2C-3224-7B4D-A4A5-BBA1140B4A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1FB5984-870A-8842-B44D-E66C66E6BBD7}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16220" xr2:uid="{B0E883E8-6AE8-D048-A64A-F3FBFC018C90}"/>
   </bookViews>
@@ -64,9 +64,6 @@
     <t>Latent Dirichlet Allocation (LDA)</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>discrete data (academic articles?)</t>
   </si>
   <si>
@@ -234,6 +231,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -591,7 +591,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -636,226 +636,226 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
         <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
         <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>25</v>
-      </c>
-      <c r="G6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
         <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>33</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s">
         <v>36</v>
-      </c>
-      <c r="G10" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
         <v>38</v>
       </c>
-      <c r="C11" t="s">
+      <c r="G11" t="s">
         <v>39</v>
-      </c>
-      <c r="G11" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" t="s">
         <v>42</v>
-      </c>
-      <c r="G13" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
         <v>44</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>45</v>
       </c>
-      <c r="D14" t="s">
+      <c r="G14" t="s">
         <v>46</v>
-      </c>
-      <c r="G14" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
         <v>48</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>49</v>
       </c>
-      <c r="D15" t="s">
+      <c r="G15" t="s">
         <v>50</v>
-      </c>
-      <c r="G15" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" t="s">
         <v>52</v>
-      </c>
-      <c r="G16" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="G17" t="s">
         <v>55</v>
-      </c>
-      <c r="G17" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" t="s">
         <v>57</v>
-      </c>
-      <c r="G18" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="F19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" t="s">
         <v>61</v>
-      </c>
-      <c r="G20" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
